--- a/2019_employee.xlsx
+++ b/2019_employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/project-private/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCE1FE-9FE3-F34D-8EF4-827C859411D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE334D3-3716-D441-BF31-8B75F73F6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1960" windowWidth="27900" windowHeight="16940" xr2:uid="{7E07E9A1-126C-C240-8449-E7F831617685}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -536,7 +536,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>9200</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>6200</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -570,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>6500</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>6500</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -604,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>9200</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>5800</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>7300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>5000</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>6800</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>7200</v>
+        <v>4100</v>
       </c>
     </row>
   </sheetData>
